--- a/painelcnj/indicadores/Rintp-2g.xlsx
+++ b/painelcnj/indicadores/Rintp-2g.xlsx
@@ -407,12 +407,12 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>2.375</t>
+          <t>924</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>2.375</t>
+          <t>924</t>
         </is>
       </c>
     </row>
@@ -424,12 +424,12 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>11.536</t>
+          <t>891</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>11.536</t>
+          <t>891</t>
         </is>
       </c>
     </row>
@@ -441,12 +441,12 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>5.097</t>
+          <t>1.644</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5.097</t>
+          <t>1.644</t>
         </is>
       </c>
     </row>
@@ -458,12 +458,12 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>9.906</t>
+          <t>1.727</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>9.906</t>
+          <t>1.727</t>
         </is>
       </c>
     </row>
@@ -475,12 +475,12 @@
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>3.202</t>
+          <t>746</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3.202</t>
+          <t>746</t>
         </is>
       </c>
     </row>
@@ -492,12 +492,12 @@
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>4.778</t>
+          <t>971</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4.778</t>
+          <t>971</t>
         </is>
       </c>
     </row>
@@ -509,12 +509,12 @@
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>3.028</t>
+          <t>655</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3.028</t>
+          <t>655</t>
         </is>
       </c>
     </row>
@@ -526,12 +526,12 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>6.338</t>
+          <t>1.108</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6.338</t>
+          <t>1.108</t>
         </is>
       </c>
     </row>
@@ -543,12 +543,12 @@
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>2.405</t>
+          <t>1.090</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2.405</t>
+          <t>1.090</t>
         </is>
       </c>
     </row>
@@ -560,12 +560,12 @@
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>5.003</t>
+          <t>821</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5.003</t>
+          <t>821</t>
         </is>
       </c>
     </row>
